--- a/mapping_spreadsheet/Timeline_Mapping_Document.xlsx
+++ b/mapping_spreadsheet/Timeline_Mapping_Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36938E64-FA3A-C544-B971-F3AA2C1DD811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC098D-3A1F-224A-AE38-1133A9A32EF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="8760" windowWidth="27240" windowHeight="16440" xr2:uid="{3863F005-E057-A640-B7EB-01C3C72AEDA2}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>PAT</t>
   </si>
@@ -96,13 +96,13 @@
     <t>entity</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>sirius_table</t>
   </si>
   <si>
     <t>persons</t>
+  </si>
+  <si>
+    <t>clients</t>
   </si>
   <si>
     <t>timeline_alias</t>
@@ -476,14 +476,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -517,57 +517,69 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/mapping_spreadsheet/Timeline_Mapping_Document.xlsx
+++ b/mapping_spreadsheet/Timeline_Mapping_Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC098D-3A1F-224A-AE38-1133A9A32EF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005A09E-6FF4-0F4F-9CBC-CBA66E9778AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22620" yWindow="8760" windowWidth="27240" windowHeight="16440" xr2:uid="{3863F005-E057-A640-B7EB-01C3C72AEDA2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1E03E6BB-7FA8-6A45-8D82-6A7BFA7502EB}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1E03E6BB-7FA8-6A45-8D82-6A7BFA7502EB}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>PAT</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>birthdate</t>
+  </si>
+  <si>
+    <t>sirius_table_pk_column</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>type=actor_client</t>
   </si>
 </sst>
 </file>
@@ -473,113 +485,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758E1892-2DF9-F647-A905-5E121FC129DF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
